--- a/tests/TestData/WebOrder_TS_All_Scenario.xlsx
+++ b/tests/TestData/WebOrder_TS_All_Scenario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Playwright_Training_NewVersion\tests\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training_Scripts\Playwright_Training_NewVersion\tests\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D5D273A-E996-4879-B338-807C5119ECDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC95A518-C6F1-45E3-AC93-3EE7C9B2D6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
